--- a/life/WebContent/doc/计划.xlsx
+++ b/life/WebContent/doc/计划.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2015-7-7" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2015-7-28" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,66 @@
   </si>
   <si>
     <t>5：00到6：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了10页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了指令的部分功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修改该bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未编写需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未学习设计模式，去开了个会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node.js学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看完基础的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看JavaScript DOM编程艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看2章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上写HTML代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,16 +188,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,21 +228,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,21 +563,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="3" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +587,14 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -487,8 +604,14 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -498,8 +621,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -509,8 +638,14 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -520,8 +655,14 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -531,21 +672,33 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -558,12 +711,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
